--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,165 +43,162 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>pool</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
+    <t>price</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -211,12 +208,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -226,40 +223,37 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -623,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,16 +707,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
+        <v>0.9076923076923077</v>
+      </c>
+      <c r="L3">
         <v>59</v>
       </c>
-      <c r="K3">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L3">
-        <v>24</v>
-      </c>
       <c r="M3">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7365591397849462</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6571428571428571</v>
+        <v>0.6875</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6428571428571429</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.5624103299856528</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L9">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>305</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.5595408895265424</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.4979253112033195</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6283783783783784</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D12">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.4598360655737705</v>
+        <v>0.4614754098360656</v>
       </c>
       <c r="L12">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M12">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6262135922330098</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.3516819571865443</v>
+        <v>0.3608562691131498</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5630252100840336</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.3090909090909091</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.2857142857142857</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5333333333333333</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.2265625</v>
+        <v>0.234375</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5014492753623189</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C18">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.2097902097902098</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.2096774193548387</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4259259259259259</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.1847389558232932</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1584,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.421875</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.1825396825396825</v>
+        <v>0.1551270815074496</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>103</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3937007874015748</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,31 +1654,31 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K22">
-        <v>0.147239263803681</v>
+        <v>0.07541899441340782</v>
       </c>
       <c r="L22">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>973</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,13 +1686,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3933649289099526</v>
+        <v>0.3779527559055118</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1710,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.08077994428969359</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.375</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.07142857142857142</v>
+        <v>0.06948051948051948</v>
       </c>
       <c r="L24">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M24">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N24">
         <v>0.99</v>
@@ -1784,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1792,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3734939759036144</v>
+        <v>0.3515625</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1810,31 +1804,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.06951871657754011</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>348</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3666666666666666</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1860,31 +1854,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26">
-        <v>0.03728362183754994</v>
-      </c>
-      <c r="L26">
-        <v>28</v>
-      </c>
-      <c r="M26">
-        <v>29</v>
-      </c>
-      <c r="N26">
-        <v>0.97</v>
-      </c>
-      <c r="O26">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>723</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,13 +1862,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3650793650793651</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1910,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,13 +1888,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3492063492063492</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1936,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1944,13 +1914,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3473684210526316</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1962,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1970,13 +1940,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2921348314606741</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1988,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1996,13 +1966,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2653061224489796</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2014,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2022,13 +1992,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2623762376237624</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2040,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2048,13 +2018,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2307692307692308</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2066,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>90</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2074,25 +2044,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2268041237113402</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>150</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2100,13 +2070,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1884057971014493</v>
+        <v>0.165</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2118,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>224</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2126,13 +2096,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.185</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2144,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2152,25 +2122,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1676557863501484</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C37">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>561</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2178,13 +2148,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1642857142857143</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2196,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>117</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2204,13 +2174,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1635514018691589</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2222,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>179</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2230,13 +2200,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1428571428571428</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2248,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2256,13 +2226,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1424050632911392</v>
+        <v>0.125</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2274,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>271</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2282,13 +2252,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1343612334801762</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2300,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>393</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2308,13 +2278,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1293103448275862</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C43">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2326,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>303</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2334,13 +2304,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1240601503759398</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>0.03</v>
@@ -2352,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2360,13 +2330,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1234177215189873</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2378,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>277</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2386,25 +2356,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1174089068825911</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>218</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2412,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0847457627118644</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>324</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2438,25 +2408,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07967032967032966</v>
+        <v>0.07248764415156507</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>335</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2464,25 +2434,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.078125</v>
+        <v>0.05373831775700934</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2490,25 +2460,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06589785831960461</v>
+        <v>0.05203045685279188</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="F50">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>567</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2516,51 +2486,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.05206738131699847</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.04182509505703422</v>
-      </c>
-      <c r="C52">
-        <v>33</v>
-      </c>
-      <c r="D52">
-        <v>38</v>
-      </c>
-      <c r="E52">
-        <v>0.13</v>
-      </c>
-      <c r="F52">
-        <v>0.87</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>756</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
